--- a/biology/Botanique/Stipule/Stipule.xlsx
+++ b/biology/Botanique/Stipule/Stipule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En botanique, les stipules (nom féminin provenant du latin stipula « tige, paille, chaume, pipeau, chalumeau ») sont des pièces foliaires, au nombre de deux, en forme de feuilles réduites situées de part et d'autre du pétiole, à sa base, au point d'insertion sur la tige. Elles servent souvent de caractères distinctifs permettant, avec d'autres, d'identifier une espèce.
 Bien qu'une paire de stipules soit considérée comme un élément de la structure type de la  feuille des végétaux supérieurs, elle est souvent absente (feuille dite exstipulée), ou réduite à des dimensions infimes.
@@ -525,7 +537,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stipules sont fréquentes chez les Rosacées plus ou moins grands selon l'espèce, parfois presque invisibles.
 Le Saule marsault et plus encore le Saule à oreillette ont des stipules bien visibles.
